--- a/teste.xlsx
+++ b/teste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,16 +450,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>blablabla</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/teste.xlsx
+++ b/teste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>coluna 1</t>
         </is>
       </c>
     </row>
@@ -447,6 +447,26 @@
       <c r="B2" t="inlineStr">
         <is>
           <t>teste.py</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>teste.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>blablabla</t>
         </is>
       </c>
     </row>
